--- a/点検報告書/シリンジポンプ 点検報告書 org.xlsx
+++ b/点検報告書/シリンジポンプ 点検報告書 org.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yamas\Desktop\Programming\Streamlit\report_app\点検報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F7721B-EEA7-4630-B95D-D34A3BE5A65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9778FF54-8DB1-4E3B-BB51-4A5081220606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{98B9417B-430B-4079-92A6-5FCAEA3AD8D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>製造番号</t>
     <rPh sb="0" eb="2">
@@ -306,39 +306,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>：500μA以下      （</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：100μA以下      （</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：5,000μA以下   （</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：0.2Ω以下         （</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：10,000μA以下 （</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>μA）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">  Ω）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kPa）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> mL）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -424,6 +396,83 @@
   </si>
   <si>
     <t xml:space="preserve"> kPa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mL/h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抵抗値</t>
+    <rPh sb="0" eb="3">
+      <t>テイコウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kPa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：     100 μA以下（</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：     500 μA以下（</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：  5,000 μA以下（</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：10,000 μA以下（</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：      0.2   Ω以下（</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -435,7 +484,7 @@
     <numFmt numFmtId="176" formatCode="0&quot;μA）&quot;"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,6 +570,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -725,7 +790,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,157 +820,151 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -931,6 +990,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1280,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B38E942-09E3-4432-B315-9F85F1F1FB07}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="66" zoomScaleNormal="72" zoomScaleSheetLayoutView="63" zoomScalePageLayoutView="66" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="72" zoomScaleSheetLayoutView="63" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:H3"/>
     </sheetView>
   </sheetViews>
@@ -1291,405 +1357,407 @@
     <col min="3" max="3" width="19.0625" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="8.4375" customWidth="1"/>
-    <col min="6" max="6" width="4.3125" customWidth="1"/>
+    <col min="6" max="6" width="6.4375" customWidth="1"/>
     <col min="7" max="7" width="5.9375" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="A1" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+        <v>29</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="22"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="33" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="16"/>
+      <c r="D11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="17"/>
       <c r="F11" s="8"/>
       <c r="G11" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A12" s="26"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="16"/>
+      <c r="D12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="17"/>
       <c r="F12" s="8"/>
       <c r="G12" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A13" s="26"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="16"/>
+      <c r="D13" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="17"/>
       <c r="F13" s="8"/>
       <c r="G13" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="26"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="16"/>
+      <c r="D14" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="17"/>
       <c r="F14" s="8"/>
       <c r="G14" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A15" s="26"/>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="16"/>
+      <c r="C15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="17"/>
       <c r="F15" s="8"/>
       <c r="G15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A17" s="31"/>
+      <c r="B17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A18" s="31"/>
+      <c r="B18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A19" s="31"/>
+      <c r="B19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A20" s="31"/>
+      <c r="B20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A22" s="14"/>
+      <c r="B22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A23" s="14"/>
+      <c r="B23" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A24" s="14"/>
+      <c r="B24" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A16" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="26"/>
-      <c r="B17" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A18" s="26"/>
-      <c r="B18" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A19" s="26"/>
-      <c r="B19" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A20" s="26"/>
-      <c r="B20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A22" s="13"/>
-      <c r="B22" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A23" s="13"/>
-      <c r="B23" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A24" s="13"/>
-      <c r="B24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A26" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>45</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A27" s="13"/>
-      <c r="B27" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>45</v>
+      <c r="A27" s="14"/>
+      <c r="B27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A28" s="14"/>
+      <c r="B28" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A28" s="13"/>
-      <c r="B28" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="40"/>
@@ -1701,7 +1769,7 @@
       <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A31" s="26"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="43"/>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
@@ -1734,8 +1802,7 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1"/>
-  <mergeCells count="41">
-    <mergeCell ref="B10:G10"/>
+  <mergeCells count="40">
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A32:H32"/>
@@ -1753,7 +1820,6 @@
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A3:C3"/>
@@ -1776,31 +1842,37 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B10:G10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B5:B8 E8">
-    <cfRule type="containsBlanks" dxfId="5" priority="5">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
       <formula>LEN(TRIM(B5))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C27">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
+      <formula>LEN(TRIM(C26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E3 F11:F15 F26:F27">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="4" priority="8">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H29">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="不合格">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="不合格">
       <formula>NOT(ISERROR(SEARCH("不合格",H11)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="2" priority="4">
+    <cfRule type="containsBlanks" dxfId="2" priority="6">
       <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="不合格">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="不合格">
       <formula>NOT(ISERROR(SEARCH("不合格",H33)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="0" priority="2">
+    <cfRule type="containsBlanks" dxfId="0" priority="4">
       <formula>LEN(TRIM(H33))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/点検報告書/シリンジポンプ 点検報告書 org.xlsx
+++ b/点検報告書/シリンジポンプ 点検報告書 org.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yamas\Desktop\Programming\Streamlit\report_app\点検報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9778FF54-8DB1-4E3B-BB51-4A5081220606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB33FB1-320A-4E8D-9980-F4C8078E898D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{98B9417B-430B-4079-92A6-5FCAEA3AD8D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>製造番号</t>
     <rPh sb="0" eb="2">
@@ -383,10 +383,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">        （</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> ml/h</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -396,31 +392,6 @@
   </si>
   <si>
     <t xml:space="preserve"> kPa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mL/h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -431,31 +402,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>kPa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>：     100 μA以下（</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -473,6 +419,22 @@
   </si>
   <si>
     <t>：      0.2   Ω以下（</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ml/h）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             （</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">               (</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  kPa）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -484,7 +446,7 @@
     <numFmt numFmtId="176" formatCode="0&quot;μA）&quot;"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,15 +533,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -790,7 +744,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -801,9 +755,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -829,136 +780,142 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1357,460 +1314,468 @@
     <col min="3" max="3" width="19.0625" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="8.4375" customWidth="1"/>
-    <col min="6" max="6" width="6.4375" customWidth="1"/>
+    <col min="6" max="6" width="7.1875" customWidth="1"/>
     <col min="7" max="7" width="5.9375" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="12.3125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="6" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="23"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="38" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="5" t="s">
+      <c r="D11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A12" s="31"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="5" t="s">
+      <c r="D12" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A13" s="31"/>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="38" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5" t="s">
+      <c r="D13" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="31"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A15" s="20"/>
+      <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A16" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A17" s="20"/>
+      <c r="B17" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A18" s="20"/>
+      <c r="B18" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A19" s="20"/>
+      <c r="B19" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A20" s="20"/>
+      <c r="B20" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A22" s="17"/>
+      <c r="B22" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A23" s="17"/>
+      <c r="B23" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A24" s="17"/>
+      <c r="B24" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A25" s="18"/>
+      <c r="B25" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A26" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A15" s="31"/>
-      <c r="B15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="17" t="s">
+      <c r="F26" s="7"/>
+      <c r="G26" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A27" s="17"/>
+      <c r="B27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="31"/>
-      <c r="B17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A18" s="31"/>
-      <c r="B18" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A19" s="31"/>
-      <c r="B19" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A20" s="31"/>
-      <c r="B20" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A22" s="14"/>
-      <c r="B22" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A26" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A27" s="14"/>
-      <c r="B27" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A28" s="14"/>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="7"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="7"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A31" s="31"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="45"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:8" ht="5.65" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="46" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="7"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="6"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="40">
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:H31"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B10:G10"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
@@ -1827,22 +1792,14 @@
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:H31"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="E33:G33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B5:B8 E8">
@@ -1894,23 +1851,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4d66f4d8-3943-4759-9a98-bc10ca003b28" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010089024CFADDEFFF488F6BBE4C7987FE45" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="0a9d4294e1387469a4de8b5834f554cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4d66f4d8-3943-4759-9a98-bc10ca003b28" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="70d5ae3300a9727b51fe24adf4013678" ns3:_="">
     <xsd:import namespace="4d66f4d8-3943-4759-9a98-bc10ca003b28"/>
@@ -2074,31 +2014,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D50C3F-C20B-42D1-9303-820AB1AA369F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4d66f4d8-3943-4759-9a98-bc10ca003b28"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25864A23-2F60-4A49-93F9-7EEA574FE90A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4d66f4d8-3943-4759-9a98-bc10ca003b28" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0627A6F2-A149-40DB-B65B-37FDA54BBAA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2114,4 +2047,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25864A23-2F60-4A49-93F9-7EEA574FE90A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D50C3F-C20B-42D1-9303-820AB1AA369F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4d66f4d8-3943-4759-9a98-bc10ca003b28"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>